--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2762.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2762.xlsx
@@ -354,7 +354,7 @@
         <v>2.423600650543254</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.369973377402281</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2762.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2762.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164297100601542</v>
+        <v>1.792813897132874</v>
       </c>
       <c r="B1">
-        <v>2.423600650543254</v>
+        <v>1.962782859802246</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.213757753372192</v>
       </c>
       <c r="D1">
-        <v>2.369973377402281</v>
+        <v>3.458035230636597</v>
       </c>
       <c r="E1">
-        <v>1.224857741369421</v>
+        <v>2.030245304107666</v>
       </c>
     </row>
   </sheetData>
